--- a/Наработки/книги/Учитель культивации/Заметки.xlsx
+++ b/Наработки/книги/Учитель культивации/Заметки.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A673BEB-9179-4263-8FD0-0088286E4802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02BF781-99A7-4A62-889A-85250DB85754}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Атрибуьы и развитие" sheetId="3" r:id="rId1"/>
+    <sheet name="Атрибуты и развитие" sheetId="3" r:id="rId1"/>
     <sheet name="Бывшие и текущие ученики" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Золотое тело</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Змеиное зрение (инфокрасное зрение)</t>
   </si>
   <si>
-    <t>Божественное зрение (видит токи энергии)</t>
-  </si>
-  <si>
     <t>Проницательнось (предчуствие, интуитция, ум)</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t xml:space="preserve">Предчуствие </t>
   </si>
   <si>
-    <t xml:space="preserve">Разум </t>
-  </si>
-  <si>
     <t>Проницательность Лудуня (лев с рогом)</t>
   </si>
   <si>
@@ -102,6 +96,18 @@
   </si>
   <si>
     <t>Бао Чиф</t>
+  </si>
+  <si>
+    <t>Божественное тело</t>
+  </si>
+  <si>
+    <t>зрение (видит токи энергии)</t>
+  </si>
+  <si>
+    <t>Божественное зрение</t>
+  </si>
+  <si>
+    <t>Разум Пэна</t>
   </si>
 </sst>
 </file>
@@ -152,13 +158,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -441,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF3F9A3-0AE6-455B-B725-551D80B3F85E}">
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,13 +469,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -476,7 +483,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
@@ -490,7 +497,7 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -504,7 +511,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -518,7 +525,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -532,7 +539,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
@@ -546,13 +553,25 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -586,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F9DE6E-20B2-4EB9-B4F2-AEA04AEDE459}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,17 +616,17 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Наработки/книги/Учитель культивации/Заметки.xlsx
+++ b/Наработки/книги/Учитель культивации/Заметки.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02BF781-99A7-4A62-889A-85250DB85754}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EE2143-1809-4A7C-949F-BAD25FE1CA70}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Атрибуты и развитие" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Золотое тело</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Разум Пэна</t>
+  </si>
+  <si>
+    <t>Секта Шторма</t>
+  </si>
+  <si>
+    <t>Си Мань</t>
   </si>
 </sst>
 </file>
@@ -162,10 +168,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -448,7 +454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF3F9A3-0AE6-455B-B725-551D80B3F85E}">
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -570,7 +576,7 @@
       <c r="E9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -603,10 +609,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F9DE6E-20B2-4EB9-B4F2-AEA04AEDE459}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,11 +621,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -627,6 +633,14 @@
       </c>
       <c r="B2" t="s">
         <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Наработки/книги/Учитель культивации/Заметки.xlsx
+++ b/Наработки/книги/Учитель культивации/Заметки.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EE2143-1809-4A7C-949F-BAD25FE1CA70}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6400FE00-9C6F-43E5-93FF-56A06057F626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Золотое тело</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Си Мань</t>
+  </si>
+  <si>
+    <t>Божественная проницательности</t>
   </si>
 </sst>
 </file>
@@ -455,12 +458,15 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="25.7109375" customWidth="1"/>
+    <col min="1" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="44.85546875" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -572,7 +578,9 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>27</v>
       </c>

--- a/Наработки/книги/Учитель культивации/Заметки.xlsx
+++ b/Наработки/книги/Учитель культивации/Заметки.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6400FE00-9C6F-43E5-93FF-56A06057F626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5E5AED-11C7-4D29-BA51-EE65742CC229}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Золотое тело</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>Божественная проницательности</t>
+  </si>
+  <si>
+    <t>Секта Огненных Недр</t>
+  </si>
+  <si>
+    <t>Секта Двух Драконов</t>
+  </si>
+  <si>
+    <t>Имя ГГ</t>
+  </si>
+  <si>
+    <t>Санг Вонг</t>
   </si>
 </sst>
 </file>
@@ -455,10 +467,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF3F9A3-0AE6-455B-B725-551D80B3F85E}">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,10 +630,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F9DE6E-20B2-4EB9-B4F2-AEA04AEDE459}">
-  <dimension ref="A1:C3"/>
+  <sheetPr codeName="Лист2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,14 +642,17 @@
     <col min="1" max="16" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -645,10 +662,19 @@
       <c r="C2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
